--- a/Data Bindings/Data Bindings.xlsx
+++ b/Data Bindings/Data Bindings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nélio\Repositories\WebApplications\Data Bindings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nélio\WebApplications\Data Bindings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FBA061-1344-4E34-91BE-2BE43630F476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02AA844-B052-46B4-A403-9D5DD07229B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC76737E-F0D0-4800-9B73-375A3C3E9C86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC76737E-F0D0-4800-9B73-375A3C3E9C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Divs/forms</t>
   </si>
@@ -53,31 +53,76 @@
     <t>Header (1)</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Label INPUT (2)</t>
-  </si>
-  <si>
     <t>Label INPUT (3)</t>
   </si>
   <si>
     <t>Buttons</t>
   </si>
   <si>
-    <t>Details (4)</t>
-  </si>
-  <si>
     <t>ng-bind=product.name</t>
   </si>
   <si>
     <t>ng-model=product.quantity</t>
   </si>
   <si>
-    <t>ng-bing=product.price</t>
-  </si>
-  <si>
     <t>ng-bind=product.details</t>
+  </si>
+  <si>
+    <t>ng-bind=user.name</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;input&gt;</t>
+  </si>
+  <si>
+    <t>&lt;button&gt;</t>
+  </si>
+  <si>
+    <t>ng-bind=product.price</t>
+  </si>
+  <si>
+    <t>ng-bind=user.profile</t>
+  </si>
+  <si>
+    <t>ng-bind=shipping.arrival</t>
+  </si>
+  <si>
+    <t>&lt;select&gt;</t>
+  </si>
+  <si>
+    <t>ng-model=payment.method</t>
+  </si>
+  <si>
+    <t>&lt;img&gt;</t>
+  </si>
+  <si>
+    <t>ng-src="{{imageUrl}}"</t>
+  </si>
+  <si>
+    <t>Image (2)</t>
+  </si>
+  <si>
+    <t>Label INPUT (4)</t>
+  </si>
+  <si>
+    <t>Details (5)</t>
+  </si>
+  <si>
+    <t>User profile image</t>
+  </si>
+  <si>
+    <t>Name of product</t>
+  </si>
+  <si>
+    <t>Image of product</t>
+  </si>
+  <si>
+    <t>Product quantity</t>
   </si>
 </sst>
 </file>
@@ -113,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,15 +181,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,21 +518,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B00F831-87A3-4738-8872-FC3B97D9BEFA}">
-  <dimension ref="B5:E12"/>
+  <dimension ref="B5:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,35 +541,50 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
+        <v>22</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -517,13 +592,18 @@
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
@@ -531,31 +611,175 @@
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Bindings/Data Bindings.xlsx
+++ b/Data Bindings/Data Bindings.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nélio\WebApplications\Data Bindings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02AA844-B052-46B4-A403-9D5DD07229B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B91A5B87-D818-4FA4-AA66-BCC684A515A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC76737E-F0D0-4800-9B73-375A3C3E9C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Folha1!$B$11:$F$11</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="158">
   <si>
     <t>Divs/forms</t>
   </si>
@@ -44,6 +47,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>HTML</t>
+  </si>
+  <si>
     <t>Bindings</t>
   </si>
   <si>
@@ -53,83 +59,470 @@
     <t>Header (1)</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt; </t>
+  </si>
+  <si>
+    <t>&lt;li&gt;</t>
+  </si>
+  <si>
     <t>Label INPUT (3)</t>
   </si>
   <si>
+    <t>&lt;input&gt;</t>
+  </si>
+  <si>
+    <t>Label INPUT (4)</t>
+  </si>
+  <si>
+    <t>&lt;button&gt;</t>
+  </si>
+  <si>
+    <t>ng-bind=user.profile</t>
+  </si>
+  <si>
+    <t>&lt;img&gt;</t>
+  </si>
+  <si>
+    <t>ng-bind=shipping.arrival</t>
+  </si>
+  <si>
+    <t>&lt;select&gt;</t>
+  </si>
+  <si>
+    <t>ng-model=payment.method</t>
+  </si>
+  <si>
+    <t>Payment option selection</t>
+  </si>
+  <si>
+    <t>ng-click="closeAuction(auctionId)"</t>
+  </si>
+  <si>
+    <t>Close auction</t>
+  </si>
+  <si>
+    <t>User username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;li&gt; </t>
+  </si>
+  <si>
+    <t>ng-repeat="review in user.reviews"</t>
+  </si>
+  <si>
+    <t>User reviews</t>
+  </si>
+  <si>
+    <t>ng-model="review.rating"</t>
+  </si>
+  <si>
+    <t>Section to review user</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;</t>
+  </si>
+  <si>
+    <t>User description</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>User settings</t>
+  </si>
+  <si>
+    <t>Label INPUT (2)</t>
+  </si>
+  <si>
+    <t>User address</t>
+  </si>
+  <si>
+    <t>User notifications</t>
+  </si>
+  <si>
+    <t>User's first name</t>
+  </si>
+  <si>
+    <t>Label INPUT (5)</t>
+  </si>
+  <si>
+    <t>User's last name</t>
+  </si>
+  <si>
+    <t>Label INPUT (6)</t>
+  </si>
+  <si>
+    <t>User's birthdate</t>
+  </si>
+  <si>
     <t>Buttons</t>
   </si>
   <si>
-    <t>ng-bind=product.name</t>
-  </si>
-  <si>
-    <t>ng-model=product.quantity</t>
-  </si>
-  <si>
-    <t>ng-bind=product.details</t>
-  </si>
-  <si>
-    <t>ng-bind=user.name</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt; </t>
-  </si>
-  <si>
-    <t>&lt;input&gt;</t>
-  </si>
-  <si>
-    <t>&lt;button&gt;</t>
-  </si>
-  <si>
-    <t>ng-bind=product.price</t>
-  </si>
-  <si>
-    <t>ng-bind=user.profile</t>
-  </si>
-  <si>
-    <t>ng-bind=shipping.arrival</t>
-  </si>
-  <si>
-    <t>&lt;select&gt;</t>
-  </si>
-  <si>
-    <t>ng-model=payment.method</t>
-  </si>
-  <si>
-    <t>&lt;img&gt;</t>
-  </si>
-  <si>
-    <t>ng-src="{{imageUrl}}"</t>
-  </si>
-  <si>
-    <t>Image (2)</t>
-  </si>
-  <si>
-    <t>Label INPUT (4)</t>
-  </si>
-  <si>
-    <t>Details (5)</t>
-  </si>
-  <si>
-    <t>User profile image</t>
-  </si>
-  <si>
-    <t>Name of product</t>
-  </si>
-  <si>
-    <t>Image of product</t>
-  </si>
-  <si>
-    <t>Product quantity</t>
+    <t>ng-click="deactivateAccount()"</t>
+  </si>
+  <si>
+    <t>User account deactivation</t>
+  </si>
+  <si>
+    <t>Dashboard tittle</t>
+  </si>
+  <si>
+    <t>ng-repeat="auction in activeAuctions"</t>
+  </si>
+  <si>
+    <t>Image (3)</t>
+  </si>
+  <si>
+    <t>Search Query for items</t>
+  </si>
+  <si>
+    <t>ng-click="getrecommendations()"</t>
+  </si>
+  <si>
+    <t>Get item and auction recommendations</t>
+  </si>
+  <si>
+    <t>Create New Auction</t>
+  </si>
+  <si>
+    <t>Title of Create New Auction page</t>
+  </si>
+  <si>
+    <t>ng-model="newItem.name"</t>
+  </si>
+  <si>
+    <t>Name of new item</t>
+  </si>
+  <si>
+    <t>ng-model="newItem.description"</t>
+  </si>
+  <si>
+    <t>Description of new item</t>
+  </si>
+  <si>
+    <t>ng-model="newAuction.startTime"</t>
+  </si>
+  <si>
+    <t>Start of new auction</t>
+  </si>
+  <si>
+    <t>ng-model="newAuction.endTime"</t>
+  </si>
+  <si>
+    <t>End of new auction</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Title of Shipping page</t>
+  </si>
+  <si>
+    <t>ng-model="newShippingOrder.shippingAddress"</t>
+  </si>
+  <si>
+    <t>Shipping address for new shipping order</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
+    <t>Analytics page title</t>
+  </si>
+  <si>
+    <t>List (2)</t>
+  </si>
+  <si>
+    <t>Current Bid</t>
+  </si>
+  <si>
+    <t>ng-bind=item.name</t>
+  </si>
+  <si>
+    <t>ng-bind=auction.current_bid</t>
+  </si>
+  <si>
+    <t>ng-bind=auction.timeleft</t>
+  </si>
+  <si>
+    <t>Time left in auction</t>
+  </si>
+  <si>
+    <t>ng-bind=item.details</t>
+  </si>
+  <si>
+    <t>Button to show user profile of seller</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;button&gt; </t>
+  </si>
+  <si>
+    <t>ng-click="watchAuction(auctionId)"</t>
+  </si>
+  <si>
+    <t>Place bid amount</t>
+  </si>
+  <si>
+    <t>Place Bid (6)</t>
+  </si>
+  <si>
+    <t>Item Description (7)</t>
+  </si>
+  <si>
+    <t>Shipping Details (9)</t>
+  </si>
+  <si>
+    <t>Watch Auction (10)</t>
+  </si>
+  <si>
+    <t>Payment Method (11)</t>
+  </si>
+  <si>
+    <t>Name of Item</t>
+  </si>
+  <si>
+    <t>Images of Item</t>
+  </si>
+  <si>
+    <t>ng-click="placeBid(auctionId, bidamount)</t>
+  </si>
+  <si>
+    <t>Button to place bid</t>
+  </si>
+  <si>
+    <t>Button to view item description</t>
+  </si>
+  <si>
+    <t>Seller Details (8)</t>
+  </si>
+  <si>
+    <t>Button to show Information regarding delivery</t>
+  </si>
+  <si>
+    <t>Button to Add auction to watched auction list</t>
+  </si>
+  <si>
+    <t>Close Auction (12)</t>
+  </si>
+  <si>
+    <t>ng-bind=user.username</t>
+  </si>
+  <si>
+    <t>ng-bind=user.information</t>
+  </si>
+  <si>
+    <t>User information (account date, country)</t>
+  </si>
+  <si>
+    <t>List (5)</t>
+  </si>
+  <si>
+    <t>User's items for sale</t>
+  </si>
+  <si>
+    <t>Statistics (6)</t>
+  </si>
+  <si>
+    <t>ng-bind=user.statistics</t>
+  </si>
+  <si>
+    <t>User statistics</t>
+  </si>
+  <si>
+    <t>ng-repeat="user.items"</t>
+  </si>
+  <si>
+    <t>ng-repeat="image in item.images"</t>
+  </si>
+  <si>
+    <t>ng-model=auction.bidamount</t>
+  </si>
+  <si>
+    <t>ng-bind=user.description</t>
+  </si>
+  <si>
+    <t>Description (7)</t>
+  </si>
+  <si>
+    <t>Edit Profile (8)</t>
+  </si>
+  <si>
+    <t>Edit user profile</t>
+  </si>
+  <si>
+    <t>ng-click="manageAccount(userId)"</t>
+  </si>
+  <si>
+    <t>ng-click="editProfile(userId)</t>
+  </si>
+  <si>
+    <t>Manage user account</t>
+  </si>
+  <si>
+    <t>Auction page</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>User Settings</t>
+  </si>
+  <si>
+    <t>Account Settings (9)</t>
+  </si>
+  <si>
+    <t>ng-model="user.address"</t>
+  </si>
+  <si>
+    <t>ng-model="user.notifications"</t>
+  </si>
+  <si>
+    <t>ng-model="user.firstname"</t>
+  </si>
+  <si>
+    <t>ng-model="user.lastname"</t>
+  </si>
+  <si>
+    <t>ng-model="user.birthdate"</t>
+  </si>
+  <si>
+    <t>Deactivate Account (7)</t>
+  </si>
+  <si>
+    <t>Auction Item Image</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>ng-click="openAuction(AuctionId)"</t>
+  </si>
+  <si>
+    <t>Open Auction page for the specified auction</t>
+  </si>
+  <si>
+    <t>Watched Auctions</t>
+  </si>
+  <si>
+    <t>Active Auctions</t>
+  </si>
+  <si>
+    <t>Label Input(4)</t>
+  </si>
+  <si>
+    <t>Label Input(5)</t>
+  </si>
+  <si>
+    <t>OpenAuction (6)</t>
+  </si>
+  <si>
+    <t>ng-src="acution.ImageURL"</t>
+  </si>
+  <si>
+    <t>Auction current bind</t>
+  </si>
+  <si>
+    <t>Auction time left</t>
+  </si>
+  <si>
+    <t>Active Auction Dashboard</t>
+  </si>
+  <si>
+    <t>ng-repeat="auction in watchedAuctions"</t>
+  </si>
+  <si>
+    <t>Watched Auction Dashboard</t>
+  </si>
+  <si>
+    <t>My Auction Dashboard</t>
+  </si>
+  <si>
+    <t>My Auctions</t>
+  </si>
+  <si>
+    <t>ng-repeat="auction in myAuctions"</t>
+  </si>
+  <si>
+    <t>Title of auction</t>
+  </si>
+  <si>
+    <t>Recommend Auction Dashboard</t>
+  </si>
+  <si>
+    <t>Recommended Auctions</t>
+  </si>
+  <si>
+    <t>ng-repeat="auction in recommendedAuctions"</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Search Query</t>
+  </si>
+  <si>
+    <t>Section Title</t>
+  </si>
+  <si>
+    <t>ng-model="searchQuery"</t>
+  </si>
+  <si>
+    <t>Recommendations(3)</t>
+  </si>
+  <si>
+    <t>Label Input(2)</t>
+  </si>
+  <si>
+    <t>ngf-select="uploadImage($file)"</t>
+  </si>
+  <si>
+    <t>Upload item images</t>
+  </si>
+  <si>
+    <t>Aplicações na Web - Data Bindings
+Grupo 30:
+Luís Ferreirinha Nº51127 
+Nélio Pereira Nº60550</t>
+  </si>
+  <si>
+    <t>ng-click="trackShippingOrder(ShippingId)"</t>
+  </si>
+  <si>
+    <t>Show tracking for the specified shipping order</t>
+  </si>
+  <si>
+    <t>Track Shipping Order (3)</t>
+  </si>
+  <si>
+    <t>List (4)</t>
+  </si>
+  <si>
+    <t>Show status of previously ordered items</t>
+  </si>
+  <si>
+    <t>ng-repeat="shippingOrderStatus for shippingOrders"</t>
+  </si>
+  <si>
+    <t>ng-bind="user.totalBids"</t>
+  </si>
+  <si>
+    <t>Total bids placed</t>
+  </si>
+  <si>
+    <t>ng-bind="user.auctionsParticipated"</t>
+  </si>
+  <si>
+    <t>Total auctions participated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +530,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +565,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -185,7 +599,44 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -198,12 +649,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,6 +726,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,270 +1029,1652 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B00F831-87A3-4738-8872-FC3B97D9BEFA}">
-  <dimension ref="B5:F26"/>
+  <dimension ref="A2:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="7">
+        <f>C12+1</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:C23" si="0">C13+1</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" ref="C18:C22" si="1">C17+1</f>
+        <v>7</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="7">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="D30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12">
+        <v>5</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="7">
+        <v>6</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="7">
+        <v>7</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="7">
+        <v>8</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="7">
+        <v>9</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="16">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="16">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="16">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="16">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
+      <c r="B47" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="16">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
+      <c r="B48" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
+      <c r="B49" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="19"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
+      <c r="E51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
+      <c r="B52" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="19"/>
+      <c r="B53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
+      <c r="B55" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="19"/>
+      <c r="B56" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="19"/>
+      <c r="B57" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
+      <c r="B58" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="19"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="19"/>
+      <c r="B64" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="1">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="1">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="17">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="17">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="17">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="17">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="C96" s="17">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="D96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="17">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3">
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="17">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="17">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="17">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3">
+      <c r="E104" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="17">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="17">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F7"/>
+  </mergeCells>
+  <pageMargins left="0" right="0.25" top="0.4" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" scale="90" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d7180437-0ae4-4fbb-bc96-844c0aed9ee3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B684AA3D696851439F7B44363D28F11F" ma:contentTypeVersion="4" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="102b19024d031913f6f02f2a96e5c9e1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d7180437-0ae4-4fbb-bc96-844c0aed9ee3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="503da8b747f9aa707c8631fd903b8d70" ns3:_="">
+    <xsd:import namespace="d7180437-0ae4-4fbb-bc96-844c0aed9ee3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d7180437-0ae4-4fbb-bc96-844c0aed9ee3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="11" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35D9DC24-2C9E-438E-8532-4D82E9305B20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d7180437-0ae4-4fbb-bc96-844c0aed9ee3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912A62DD-79D5-48F9-98C9-E59B6650D497}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA69A66-1D5F-4AF8-8253-866B94E61B2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d7180437-0ae4-4fbb-bc96-844c0aed9ee3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>